--- a/audio_config.xlsx
+++ b/audio_config.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HWXX\XiuXian_Haiwai_client_Doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="game" sheetId="1" r:id="rId1"/>
     <sheet name="ludo" sheetId="2" r:id="rId2"/>
     <sheet name="domino" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>name|名称</t>
   </si>
@@ -187,19 +192,17 @@
   </si>
   <si>
     <t>bgm_duominuo_fanpai</t>
+  </si>
+  <si>
+    <t>翻牌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,154 +214,25 @@
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,198 +241,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -566,253 +260,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -824,62 +276,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1166,26 +575,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="38.25" customWidth="1"/>
     <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1196,7 +605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1207,7 +616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1218,7 +627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1230,29 +639,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="28.25" customWidth="1"/>
     <col min="3" max="3" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1275,7 +683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1287,7 +695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1299,7 +707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1311,7 +719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1323,7 +731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1335,7 +743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1347,7 +755,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1359,7 +767,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1371,7 +779,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -1383,7 +791,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1396,29 +804,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.25" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1441,7 +848,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:3">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -1453,7 +860,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1465,7 +872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1477,7 +884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -1489,7 +896,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1501,7 +908,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1513,7 +920,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1525,7 +932,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1537,7 +944,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -1549,7 +956,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -1561,7 +968,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -1569,12 +976,12 @@
         <f t="shared" si="0"/>
         <v>bgm_duominuo_fanpai.mp3</v>
       </c>
-      <c r="C13" t="s">
-        <v>55</v>
+      <c r="C13" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/audio_config.xlsx
+++ b/audio_config.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HWXX\XiuXian_Haiwai_client_Doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="game" sheetId="1" r:id="rId1"/>
     <sheet name="ludo" sheetId="2" r:id="rId2"/>
     <sheet name="domino" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>name|名称</t>
   </si>
@@ -32,10 +27,10 @@
     <t>desc|使用说明</t>
   </si>
   <si>
-    <t>bgm_main_hall</t>
-  </si>
-  <si>
-    <t>bgm_main_hall.mp3</t>
+    <t>BGM_dating</t>
+  </si>
+  <si>
+    <t>BGM_dating.mp3</t>
   </si>
   <si>
     <t>大厅背景音乐，循环</t>
@@ -195,14 +190,25 @@
   </si>
   <si>
     <t>翻牌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_duominuo_lastpai</t>
+  </si>
+  <si>
+    <t>最后一张牌</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,25 +220,161 @@
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,18 +383,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -260,9 +588,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -278,17 +848,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -575,26 +1189,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="38.25" customWidth="1"/>
     <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +1219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -616,7 +1230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -627,7 +1241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -639,28 +1253,29 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="28.25" customWidth="1"/>
     <col min="3" max="3" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +1286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -683,7 +1298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -695,7 +1310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -707,7 +1322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -719,7 +1334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -731,7 +1346,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -743,7 +1358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -755,7 +1370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -767,7 +1382,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -779,7 +1394,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -791,7 +1406,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -804,28 +1419,29 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="28.25" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,19 +1452,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f t="shared" ref="B2:B13" si="0">""&amp;A2&amp;".mp3"</f>
+        <f t="shared" ref="B2:B14" si="0">""&amp;A2&amp;".mp3"</f>
         <v>bgm_duominuo_bj.mp3</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -860,7 +1476,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -872,7 +1488,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -884,7 +1500,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -896,7 +1512,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -908,7 +1524,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -920,7 +1536,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -932,7 +1548,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -944,7 +1560,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -956,7 +1572,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -968,7 +1584,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -980,8 +1596,20 @@
         <v>57</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>bgm_duominuo_lastpai.mp3</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>